--- a/initial_params.xlsx
+++ b/initial_params.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Amplitude Sig</t>
   </si>
@@ -47,34 +47,16 @@
     <t>Noise</t>
   </si>
   <si>
-    <t>eyescrunching</t>
-  </si>
-  <si>
-    <t>jaw</t>
-  </si>
-  <si>
-    <t>raisingeyebrows</t>
-  </si>
-  <si>
-    <t>movehat</t>
-  </si>
-  <si>
-    <t>movehead</t>
-  </si>
-  <si>
-    <t>blink</t>
-  </si>
-  <si>
-    <t>templerun</t>
-  </si>
-  <si>
-    <t>sudoku</t>
-  </si>
-  <si>
-    <t>flow</t>
-  </si>
-  <si>
-    <t>wordsearch</t>
+    <t>eyescrunching+jaw</t>
+  </si>
+  <si>
+    <t>jaw+raisingeyebrows</t>
+  </si>
+  <si>
+    <t>blink+templerun</t>
+  </si>
+  <si>
+    <t>blink+sudoku</t>
   </si>
 </sst>
 </file>
@@ -432,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,7 +475,7 @@
         <v>0.01</v>
       </c>
       <c r="H2">
-        <v>-0.0738400261005589</v>
+        <v>-0.5382516940701341</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -519,115 +501,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G3">
         <v>0.01</v>
       </c>
       <c r="H3">
-        <v>-0.02903273376741133</v>
+        <v>-0.3122190014324168</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.01</v>
-      </c>
-      <c r="G4">
-        <v>0.01</v>
-      </c>
-      <c r="H4">
-        <v>-0.3664019806239966</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.01</v>
-      </c>
-      <c r="G5">
-        <v>0.01</v>
-      </c>
-      <c r="H5">
-        <v>-0.02541153791507557</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.01</v>
-      </c>
-      <c r="G6">
-        <v>0.01</v>
-      </c>
-      <c r="H6">
-        <v>-1.449764027933893</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +523,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -698,13 +584,13 @@
         <v>0.01</v>
       </c>
       <c r="H2">
-        <v>-3.171132837305141</v>
+        <v>-2.432000621081636</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -730,109 +616,13 @@
         <v>0.01</v>
       </c>
       <c r="H3">
-        <v>-4.778879412017504</v>
+        <v>-2.338056636100122</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.01</v>
-      </c>
-      <c r="G4">
-        <v>0.01</v>
-      </c>
-      <c r="H4">
-        <v>-1.816601255302154</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.01</v>
-      </c>
-      <c r="G5">
-        <v>0.01</v>
-      </c>
-      <c r="H5">
-        <v>-2.224943738798284</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.01</v>
-      </c>
-      <c r="G6">
-        <v>0.01</v>
-      </c>
-      <c r="H6">
-        <v>-1.317635029509511</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/initial_params.xlsx
+++ b/initial_params.xlsx
@@ -475,7 +475,7 @@
         <v>0.01</v>
       </c>
       <c r="H2">
-        <v>-0.5382516940701341</v>
+        <v>-1.98908430042096</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0.01</v>
       </c>
       <c r="H3">
-        <v>-0.3122190014324168</v>
+        <v>-1.448638050480701</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -584,7 +584,7 @@
         <v>0.01</v>
       </c>
       <c r="H2">
-        <v>-2.432000621081636</v>
+        <v>-2.833048256440481</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>0.01</v>
       </c>
       <c r="H3">
-        <v>-2.338056636100122</v>
+        <v>-2.395648834918044</v>
       </c>
       <c r="I3">
         <v>1</v>
